--- a/beadando/C#_Parallel/meresek.xlsx
+++ b/beadando/C#_Parallel/meresek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Egyetem\c_sdk_220203\parhuzamos-algoritmusok\beadando\C#_Parallel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B271420A-CC25-451C-A262-3AF4964F727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF5ECD2-3A58-4975-803C-F0FCE76260A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="3675" windowWidth="17970" windowHeight="11385" xr2:uid="{B4B0FE78-081B-42D5-9E32-3489B8483E43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4B0FE78-081B-42D5-9E32-3489B8483E43}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Szálak száma</t>
   </si>
@@ -49,12 +49,6 @@
     <t>Szótár hossza: 65 ezer szó</t>
   </si>
   <si>
-    <t>Szótár hossza: 3 ezer szó</t>
-  </si>
-  <si>
-    <t>Összes  kirakható szó keresése</t>
-  </si>
-  <si>
     <t>Megjegyzés:</t>
   </si>
   <si>
@@ -63,14 +57,25 @@
   <si>
     <t>8 szálon a leggyorsabb a program futása (8 mag 16 szál).</t>
   </si>
+  <si>
+    <t>Szótár hossza</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -98,20 +103,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -127,6 +136,1213 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Teljesítmény méret és szál függvényében</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$D$7:$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Szálak száma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$C$9:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$D$9:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>34.865000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.386000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.126999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105.31699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>122.456</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>147.00700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>177.19200000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>219.80500000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>252.279</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>296.495</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>329.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66BB-4002-86DF-DF49F43CA4C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$E$7:$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Szálak száma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$C$9:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$E$9:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.2560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.476000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.906000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.001000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.236999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.031999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.901000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.237000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.73</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.015000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-66BB-4002-86DF-DF49F43CA4C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1078611776"/>
+        <c:axId val="1078615104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1078611776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Szótárban lévő szavak száma</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1078615104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1078615104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Idő ()másodperc</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1078611776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D1859F-665B-6335-53B9-51CCAA2FE9B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,10 +1642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CD82DB-EC3F-4F87-B361-FA01FDAF1A21}">
-  <dimension ref="B1:J11"/>
+  <dimension ref="B1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,186 +1658,284 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>2</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>4</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>8</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>6.1909999999999998</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>2.5790000000000002</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>2.177</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>3.2170000000000001</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <v>2.7080000000000002</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
+      <c r="B4" s="4"/>
       <c r="C4">
         <v>20</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>40.039000000000001</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>8.5739999999999998</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>9.5350000000000001</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>6.0350000000000001</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <v>8.0150000000000006</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
+      <c r="B5" s="4"/>
       <c r="C5">
         <v>30</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>42.14</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>17.77</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>14.173999999999999</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>12.848000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
+      <c r="B6" s="1"/>
       <c r="I6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>4</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="E8" s="2">
         <v>8</v>
       </c>
-      <c r="H8" s="4">
-        <v>16</v>
-      </c>
+      <c r="F8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>3000</v>
+      </c>
+      <c r="D9" s="2">
         <v>34.865000000000002</v>
       </c>
-      <c r="E9" s="4">
-        <v>18.12</v>
-      </c>
-      <c r="F9" s="4">
-        <v>10.038</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="E9" s="2">
         <v>6.2560000000000002</v>
       </c>
-      <c r="H9" s="4">
-        <v>6.7110000000000003</v>
-      </c>
+      <c r="F9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
         <v>6</v>
-      </c>
-      <c r="J9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10">
+        <v>3500</v>
+      </c>
+      <c r="D10" s="2">
+        <v>63.386000000000003</v>
+      </c>
+      <c r="E10" s="2">
+        <v>11.476000000000001</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11">
+        <v>4000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>83.126999999999995</v>
+      </c>
+      <c r="E11" s="2">
+        <v>14.906000000000001</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12">
+        <v>4500</v>
+      </c>
+      <c r="D12" s="2">
+        <v>105.31699999999999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>19.001000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13">
+        <v>5000</v>
+      </c>
+      <c r="D13" s="2">
+        <v>122.456</v>
+      </c>
+      <c r="E13" s="2">
+        <v>22.236999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14">
+        <v>5500</v>
+      </c>
+      <c r="D14" s="2">
+        <v>147.00700000000001</v>
+      </c>
+      <c r="E14" s="2">
+        <v>24.11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15">
+        <v>6000</v>
+      </c>
+      <c r="D15" s="2">
+        <v>177.19200000000001</v>
+      </c>
+      <c r="E15" s="2">
+        <v>34.031999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16">
+        <v>6500</v>
+      </c>
+      <c r="D16" s="2">
+        <v>219.80500000000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>37.901000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17">
+        <v>7000</v>
+      </c>
+      <c r="D17" s="2">
+        <v>252.279</v>
+      </c>
+      <c r="E17" s="2">
+        <v>46.237000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18">
+        <v>7500</v>
+      </c>
+      <c r="D18" s="2">
+        <v>296.495</v>
+      </c>
+      <c r="E18" s="2">
+        <v>53.73</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19">
+        <v>8000</v>
+      </c>
+      <c r="D19" s="2">
+        <v>329.85</v>
+      </c>
+      <c r="E19" s="2">
+        <v>60.015000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/beadando/C#_Parallel/meresek.xlsx
+++ b/beadando/C#_Parallel/meresek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Egyetem\c_sdk_220203\parhuzamos-algoritmusok\beadando\C#_Parallel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF5ECD2-3A58-4975-803C-F0FCE76260A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC31FDF-4633-490C-A9F3-D0344B8BB091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4B0FE78-081B-42D5-9E32-3489B8483E43}"/>
   </bookViews>
@@ -111,6 +111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -120,7 +121,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -210,9 +210,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -232,15 +231,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Munka1!$C$9:$C$19</c:f>
@@ -325,6 +326,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-66BB-4002-86DF-DF49F43CA4C3}"/>
@@ -349,15 +351,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Munka1!$C$9:$C$19</c:f>
@@ -442,6 +446,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-66BB-4002-86DF-DF49F43CA4C3}"/>
@@ -456,11 +461,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:smooth val="0"/>
         <c:axId val="1078611776"/>
         <c:axId val="1078615104"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1078611776"/>
         <c:scaling>
@@ -1645,7 +1649,7 @@
   <dimension ref="B1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1658,13 +1662,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -1687,7 +1691,7 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -1710,7 +1714,7 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
       <c r="C4">
         <v>20</v>
       </c>
@@ -1731,7 +1735,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
+      <c r="B5" s="5"/>
       <c r="C5">
         <v>30</v>
       </c>
@@ -1761,13 +1765,13 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D8" s="2">
@@ -1780,7 +1784,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C9">
@@ -1802,7 +1806,7 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10">
         <v>3500</v>
       </c>
@@ -1817,7 +1821,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
+      <c r="B11" s="6"/>
       <c r="C11">
         <v>4000</v>
       </c>
@@ -1832,7 +1836,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
+      <c r="B12" s="6"/>
       <c r="C12">
         <v>4500</v>
       </c>
@@ -1844,7 +1848,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="C13">
         <v>5000</v>
       </c>
@@ -1856,7 +1860,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
+      <c r="B14" s="6"/>
       <c r="C14">
         <v>5500</v>
       </c>
@@ -1868,7 +1872,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15">
         <v>6000</v>
       </c>
@@ -1880,7 +1884,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16">
         <v>6500</v>
       </c>
@@ -1892,7 +1896,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17">
         <v>7000</v>
       </c>
@@ -1904,7 +1908,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18">
         <v>7500</v>
       </c>
@@ -1916,7 +1920,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19">
         <v>8000</v>
       </c>
